--- a/support_data/purchase_analysis/purchase_analysis.xlsx
+++ b/support_data/purchase_analysis/purchase_analysis.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Номенклатура</t>
   </si>
   <si>
-    <t>Дефицит</t>
+    <t>План_закупа</t>
   </si>
   <si>
     <t>Заказано</t>
@@ -28,15 +28,18 @@
     <t>Доставлено</t>
   </si>
   <si>
-    <t>Еще_заказать</t>
-  </si>
-  <si>
-    <t>Арматура 6-АI ГОСТ 5781-82 ст3сп ГОСТ 380-2005</t>
+    <t>Остаточная_потребность</t>
+  </si>
+  <si>
+    <t>Арматура 6-АI ГОСТ 5781-82 ст3сп5 ГОСТ 380-2005</t>
   </si>
   <si>
     <t>Болт М10-6gх40.5.8.Гл ГОСТ 7798-70</t>
   </si>
   <si>
+    <t>Болт М16-6gх80.5.8.Гл ГОСТ Р ИСО 4014-2013</t>
+  </si>
+  <si>
     <t>Болт М20-6gх160.8.8.Гл ГОСТ 7798-70</t>
   </si>
   <si>
@@ -55,54 +58,27 @@
     <t>Гайка М20-6h.5.Гл ГОСТ 5915-70</t>
   </si>
   <si>
+    <t>Гайка М24-6h.5.Гл ГОСТ 5915-70</t>
+  </si>
+  <si>
     <t>Двутавр 30 Б1 ГОСТ Р 57837-2017 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Двутавр 30 Б2 СТО АМСЧ 20-93 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Кабельный ввод М25 латунный УТ1,5 IP66 (d кабеля 8-16мм)</t>
-  </si>
-  <si>
-    <t>Коробка клеммная КЗНС-08, IP65, УХЛ1,5, латунный ввод</t>
-  </si>
-  <si>
     <t>Круг 10 ГОСТ 2590-2006 45 ГОСТ 1050-88</t>
   </si>
   <si>
     <t>Круг 10 ГОСТ 2590-2006 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Круг 12 ГОСТ 2590-2006 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Круг 12 ГОСТ 2590-2006 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Круг 12 ГОСТ 2590-2006 ст3сп5 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Круг 14 ГОСТ 2590-2006 09Г2С-12 ГОСТ 19821-2014</t>
-  </si>
-  <si>
-    <t>Круг 14 ГОСТ 2590-2006 09Г2С-15 ГОСТ 19821-2014</t>
-  </si>
-  <si>
     <t>Круг 15 ГОСТ 2590-2006 40 ГОСТ 1050-2013</t>
   </si>
   <si>
-    <t>Круг 16 ГОСТ 2590-2006 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 16 ГОСТ 2590-2006 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 16 ГОСТ 2590-2006 09Г2С-8 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 16 ГОСТ 2590-2006 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Круг 16 ГОСТ 2590-2006 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
@@ -112,42 +88,21 @@
     <t>Круг 18 ГОСТ 2590-2006 Ст5сп ГОСТ 5781-82</t>
   </si>
   <si>
-    <t>Круг 18 ГОСТ 2590-2006 ст3сп5 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Круг 20 ГОСТ 2590-2006 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 20 ГОСТ 2590-2006 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 20 ГОСТ 2590-2006 09Г2С-8 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Круг 20 ГОСТ 2590-2006 45 ГОСТ 1050-88</t>
   </si>
   <si>
-    <t>Круг 20 ГОСТ 2590-2006 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Круг 20 ГОСТ 2590-2006 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Круг 24 ГОСТ 2590-2006 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 24 ГОСТ 2590-2006 09Г2С-8 ГОСТ 19281-2014</t>
+    <t>Круг 21 ГОСТ 2590-2006 40 ГОСТ 1050-2013</t>
+  </si>
+  <si>
+    <t>Круг 25 ГОСТ 2590-2006 40 ГОСТ 1050-2013</t>
   </si>
   <si>
     <t>Круг 25 ГОСТ 2590-2006 45 ГОСТ 1050-88</t>
   </si>
   <si>
-    <t>Круг 28 ГОСТ 2590-2006 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Круг 30 ГОСТ 2590-2006 45 ГОСТ 1050-88</t>
-  </si>
-  <si>
     <t>Круг 31 ГОСТ 2590-2006 40 ГОСТ 1050-2013</t>
   </si>
   <si>
@@ -157,9 +112,6 @@
     <t>Круг 40 ГОСТ 2590-2006 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Круг 45 ГОСТ 2590-2006 ст3сп5 ГОСТ 380-2005</t>
-  </si>
-  <si>
     <t>Круг 50 ГОСТ 2590-2006 45 ГОСТ 1050-88</t>
   </si>
   <si>
@@ -178,27 +130,21 @@
     <t>Лист 1 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Лист 10 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Лист 10 ГОСТ 19903-74 09Г2С-15 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Лист 10 ГОСТ 19903-74 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Лист 10 ГОСТ 19903-74 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Лист 10 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
+    <t>Лист 12 ГОСТ 19903-2015 09Г2С-12 ГОСТ 19281-2014</t>
+  </si>
+  <si>
+    <t>Лист 12 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
+  </si>
+  <si>
     <t>Лист 12 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Лист 14 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Лист 14 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
@@ -208,12 +154,6 @@
     <t>Лист 16 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Лист 16 ГОСТ 19903-74 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Лист 16 ГОСТ 19903-74 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Лист 16 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
@@ -238,33 +178,18 @@
     <t>Лист 30 ГОСТ 19903-74 С345-6 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Лист 4 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Лист 4 ГОСТ 19903-74 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Лист 4 ГОСТ 19903-74 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Лист 4 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Лист 40 ГОСТ 19903-74 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Лист 40 ГОСТ 19903-74 У8А ГОСТ 1435-90</t>
   </si>
   <si>
-    <t>Лист 50 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
+    <t>Лист 50 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
     <t>Лист 6 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Лист 6 ГОСТ 19903-74 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Лист 6 ГОСТ 19903-74 С345-3 ГОСТ 27772-2015</t>
   </si>
   <si>
@@ -274,84 +199,45 @@
     <t>Лист 8 ГОСТ 19903-74 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Лист 8 ГОСТ 19903-74 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Лист 8 ГОСТ 19903-74 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Лист 8 ГОСТ 19903-74 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Лист ПВ 406 ТУ 36.26.11-5-89 ст3 ГОСТ 380-2005</t>
+    <t>Лист ПВ 406 ТУ 36.26.11-5-89 ст3сп5 ГОСТ 380-2005</t>
   </si>
   <si>
     <t>Лист ПВ 506 СТО АМСЧ 23083253-001-2007 ст3сп ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Лист ПВ 506 ТУ 36.26.11-5-89 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Лист ромб 4 ГОСТ 8568-77 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
     <t>Отвод 90° 114х6 ГОСТ 17375-83 Ст3 ГОСТ 380-2005</t>
   </si>
   <si>
+    <t>Петля М14 ОЭМЗ.ПБ.261.04.02.001</t>
+  </si>
+  <si>
     <t>Пластина 1Н-I-ТМКЩ-С-10 ГОСТ 7338-90</t>
   </si>
   <si>
-    <t>Сетка 2 - 50 - 3,0 - 0 ГОСТ 5336-80</t>
+    <t>Подшипник 80310 ГОСТ 7242-81</t>
   </si>
   <si>
     <t>Табличка 63х80 12Х18Н10Т</t>
   </si>
   <si>
-    <t>Труба 114х5 ГОСТ 10704-91 09Г2С-8 ГОСТ 19281-2014</t>
+    <t>Труба 114х8 ГОСТ 8732-78 20 ГОСТ 1050-88</t>
   </si>
   <si>
     <t>Труба 114х8 ГОСТ 8732-78 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Труба 194х10 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 20х2 ГОСТ 8734-75 ст3сп5 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Труба 219х10 ГОСТ 10704-91 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 219х10 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Труба 219х9 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Труба 325х9 ГОСТ 10704-91 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 325х9 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 36х3 ГОСТ 10704-91 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 42х2,5 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
+    <t>Труба 426х9 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Труба 51х3,5 ГОСТ 10704-91 09Г2С-8 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Труба 51х5 ГОСТ 8732-78 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Труба 530х8 ГОСТ 10704-91 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Труба 530х8 ГОСТ 10704-91 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Труба 530х9 ГОСТ 10704-91 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
@@ -361,30 +247,15 @@
     <t>Труба 57х3 ГОСТ 10704-91 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Труба 63,5х4 ГОСТ 8732-78 09Г2С-15 ГОСТ 19821-2014</t>
-  </si>
-  <si>
     <t>Труба 73х6 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Труба ДУ 40х48х3,5 ГОСТ 3262-75 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Труба ДУ-Ц- 32х42,3х3,2 ГОСТ 3262-75 ст3 ГОСТ 380-2005</t>
+    <t>Труба 73х8 ГОСТ 8732-78 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Труба профильная 100х100х4 ГОСТ 30245-94100 С345-3 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Труба профильная 180х140х6 ГОСТ 30245-94 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Труба профильная 180х180х5 ГОСТ 30245-94180 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Труба профильная 40х40х3 ГОСТ 30245-94 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Труба профильная 40х40х3 ГОСТ 30245-94 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
@@ -403,22 +274,16 @@
     <t>Уголок 100х100х7 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 100х100х7 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 100х100х7 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 100х100х7 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Уголок 100х100х8 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
+    <t>Уголок 100х100х8 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Уголок 110х110х8 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 110х110х8 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
+    <t>Уголок 125х125х10 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Уголок 125х125х10 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
@@ -433,187 +298,79 @@
     <t>Уголок 125х125х8 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Уголок 125х125х8 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
-    <t>Уголок 125х125х9 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 140х140х9 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 140х140х9 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
+    <t>Уголок 140х140х10 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Уголок 160х160х10 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 160х160х10 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 160х160х10 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 160х160х12 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
   </si>
   <si>
     <t>Уголок 160х160х14 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Уголок 160х160х16 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 180х180х11 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 180х180х12 ГОСТ 8509-86 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 200х200х12 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 200х200х16 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Уголок 25х25х4 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Уголок 32х32х4 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 32х32х4 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 32х32х4 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Уголок 35х35х4 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Уголок 40х40х4 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 40х40х4 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 40х40х4 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 40х40х4 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 50х50х4 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 50х50х4 ГОСТ 8509-86 09Г2С-8 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 50х50х5 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Уголок 50х50х5 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 50х50х5 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 50х50х5 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 50х50х5 ГОСТ 8509-86 С345-5-ГК ГОСТ 27772-2015</t>
   </si>
   <si>
     <t>Уголок 50х50х5 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Уголок 63х63х4 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
-  </si>
-  <si>
     <t>Уголок 63х63х5 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 63х63х5 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 63х63х5 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 63х63х5 ГОСТ 8509-86 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 63х63х5 ГОСТ 8509-86 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
+    <t>Уголок 63х63х6 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
+  </si>
+  <si>
     <t>Уголок 70х70х6 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 70х70х6 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 70х70х6 ГОСТ 8509-86 09Г2С-8 ГОСТ 19281-2014</t>
-  </si>
-  <si>
     <t>Уголок 70х70х6 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
   </si>
   <si>
-    <t>Уголок 70х70х6 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 70х70х6 ГОСТ 8509-86 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 75х75х6 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 75х75х6 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 75х75х6 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 80х80х5,5 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 80х80х6 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 80х80х6 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Уголок 80х80х6 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 80х80х6 ГОСТ 8509-86 С345-6 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 90х90х6 ГОСТ 8509-86 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Уголок 90х90х6 ГОСТ 8509-86 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Уголок 90х90х7 ГОСТ 8509-86 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Уголок 90х90х7 ГОСТ 8509-86 09Г2С-15 ГОСТ 19281-2014</t>
+    <t>Швеллер 12 П ГОСТ 8240-89 09Г2С-12 ГОСТ 19281-2014</t>
+  </si>
+  <si>
+    <t>Швеллер 12 У ГОСТ 8240-89 ст3сп5 ГОСТ 380-2005</t>
+  </si>
+  <si>
+    <t>Швеллер 14 У ГОСТ 8240-89 ст3сп5 ГОСТ 380-2005</t>
   </si>
   <si>
     <t>Швеллер 16 П ГОСТ 8240-89 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Швеллер 18 П ГОСТ 8240-89 С345-3 ГОСТ 27772-2015</t>
-  </si>
-  <si>
-    <t>Швеллер 18 У ГОСТ 8240-89 С345-3 ГОСТ 27772-2015</t>
+    <t>Швеллер 16 У ГОСТ 8240-89 ст3сп5 ГОСТ 380-2005</t>
   </si>
   <si>
     <t>Швеллер 20 У ГОСТ 8240-89 ст3 ГОСТ 380-2005</t>
   </si>
   <si>
-    <t>Швеллер 24 П ГОСТ 8240-89 09Г2С-12 ГОСТ 19281-2014</t>
-  </si>
-  <si>
-    <t>Швеллер 30 П ГОСТ 8240-89 С345-6 ГОСТ 19281-2014</t>
+    <t>Швеллер 30 У ГОСТ 8240-89 09Г2С-12 ГОСТ 19281-2014</t>
   </si>
   <si>
     <t>Швеллер 6,5 П ГОСТ 8240-89 09Г2С-15 ГОСТ 19281-2014</t>
@@ -625,31 +382,28 @@
     <t>Швеллер 8 П ГОСТ 8240-89 09Г2С-15 ГОСТ 19281-2014</t>
   </si>
   <si>
-    <t>Швеллер 8 П ГОСТ 8240-89 С345-5 ГОСТ 27772-2015</t>
-  </si>
-  <si>
     <t>Шпилька по чертежу 16х1000.ст3.ГЦ Ст-2019-06</t>
   </si>
   <si>
     <t>Шпилька по чертежу М36х250.09Г2С-6.бп 3.407.9-146.3-03КМД</t>
   </si>
   <si>
-    <t>Шпилька по чертежу М36х262.09Г2С-6.бп 3.407.9-146.3-01КМД</t>
-  </si>
-  <si>
     <t>Шпилька по чертежу М42х250.09Г2С-6.бп 3.407.9-146.3-05КМД</t>
   </si>
   <si>
-    <t>Шпилька по чертежу М42х320.09Г2С-6.бп 3.407.9-146.3-05КМД</t>
-  </si>
-  <si>
-    <t>Шпилька по чертежу ф412 48х645.09Г2С-12.бп ОГ-ТП.10/220-ф412</t>
+    <t>Шпилька по чертежу М48х340.09Г2С-4.бп 3.407.9-146.3-05КМД</t>
+  </si>
+  <si>
+    <t>Шпилька по чертежу ф402 48х645.С345-3.бп ОГ-ТП.10/220-ф402</t>
   </si>
   <si>
     <t>Шпилька(резьба 115 мм) 7М30-8gх430..ГЦ ГОСТ 24379.1-2012</t>
   </si>
   <si>
     <t>Шплинт 3,2х25.Гл ГОСТ 397-79</t>
+  </si>
+  <si>
+    <t>Шплинт 5х20.Гл ГОСТ 397-79</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1061,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1069,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.463</v>
+        <v>0.644</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1078,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1086,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.764</v>
+        <v>0.463</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1095,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1103,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>9.984</v>
+        <v>0.764</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1112,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1120,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3808</v>
+        <v>9.984</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1129,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>9.984</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1137,7 +891,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.203</v>
+        <v>2744</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1146,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1154,7 +908,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.501</v>
+        <v>0.203</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1163,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1171,7 +925,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>926.578</v>
+        <v>1.501</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1180,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.501</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1188,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>31.807</v>
+        <v>10.404</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1197,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1205,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>926.578</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1214,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>926.578</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1222,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>31.807</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1231,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>31.807</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1248,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.169999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1256,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1.003</v>
+        <v>14.959</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1265,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>14.959</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1273,16 +1027,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>158.52</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C16">
-        <v>158.52</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>142.668</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1290,16 +1044,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.08500000000000001</v>
+        <v>13.009</v>
       </c>
       <c r="C17">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0765</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>13.009</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1307,16 +1061,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>485.789</v>
+        <v>0.353</v>
       </c>
       <c r="C18">
-        <v>485.789</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>437.2101</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1324,16 +1078,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>1319.842</v>
+        <v>29.327</v>
       </c>
       <c r="C19">
-        <v>1319.842</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1187.8578</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-2.273736754432321e-13</v>
+        <v>29.327</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1341,16 +1095,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>470.588</v>
+        <v>14.893</v>
       </c>
       <c r="C20">
-        <v>470.588</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>423.5292</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>14.893</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1358,16 +1112,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>6.162</v>
+        <v>0.650999999999999</v>
       </c>
       <c r="C21">
-        <v>6.162000000000001</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>5.5458</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>-8.881784197001252e-16</v>
+        <v>0.650999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1375,16 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>556.7989999999991</v>
+        <v>1.151</v>
       </c>
       <c r="C22">
-        <v>556.799</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>501.1191</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>-9.094947017729282e-13</v>
+        <v>1.151</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1392,16 +1146,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>327.998</v>
+        <v>21.167</v>
       </c>
       <c r="C23">
-        <v>327.998</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>295.1982</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-5.684341886080801e-14</v>
+        <v>21.167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1409,16 +1163,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>359.6</v>
+        <v>35.933</v>
       </c>
       <c r="C24">
-        <v>359.6</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>323.64</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>35.933</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1426,16 +1180,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>792.942</v>
+        <v>15.556</v>
       </c>
       <c r="C25">
-        <v>792.942</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>713.6478</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>15.556</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1443,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.353</v>
+        <v>158.621999999999</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1452,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>158.621999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1460,7 +1214,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>12.727</v>
+        <v>1.678</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1469,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.678</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1477,7 +1231,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>14.893</v>
+        <v>16.409</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1486,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>16.409</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1494,7 +1248,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>402.16</v>
+        <v>175.581</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1503,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>175.581</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1511,7 +1265,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>1946.866</v>
+        <v>14.096</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1520,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>14.096</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1528,7 +1282,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>888.888</v>
+        <v>4.896</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1537,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4.896</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1545,7 +1299,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>266.58</v>
+        <v>0.042</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1554,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1562,7 +1316,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.650999999999999</v>
+        <v>12.054</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1571,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>12.054</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1579,7 +1333,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>2.744</v>
+        <v>0.053</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1588,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1596,13 +1350,13 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>1.151</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>10597.5</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>10597.5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1613,7 +1367,7 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>67.495</v>
+        <v>153.914</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1622,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>153.914</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1630,13 +1384,13 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>91.032</v>
+        <v>6540.642</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8478</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>8478</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1647,7 +1401,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>15.556</v>
+        <v>1690.02199999999</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1656,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1690.02199999999</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1664,7 +1418,7 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>386.444</v>
+        <v>9.313000000000001</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1673,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>9.313000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1681,7 +1435,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>10.427</v>
+        <v>14.653</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1690,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>14.653</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1698,7 +1452,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>112.511</v>
+        <v>848.063</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1707,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>848.063</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1715,7 +1469,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>1.678</v>
+        <v>3967.349999999997</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1724,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3967.349999999997</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1732,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>16.409</v>
+        <v>0.296</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1741,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1749,7 +1503,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>13.225</v>
+        <v>0.104</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1758,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1766,7 +1520,7 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>1.539</v>
+        <v>134.447</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1775,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>134.447</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1783,7 +1537,7 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>14.096</v>
+        <v>3632.881</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1792,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3632.881</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1800,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>4.896</v>
+        <v>1838.44799999999</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1809,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1838.44799999999</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1817,7 +1571,7 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.042</v>
+        <v>0.255</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1826,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1834,7 +1588,7 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>12.054</v>
+        <v>10.197</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1843,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>10.197</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1851,13 +1605,13 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.053</v>
+        <v>4502.107</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>6358.5</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>6358.5</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1868,7 +1622,7 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>9705.61299999999</v>
+        <v>3556.558</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1877,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3556.558</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1885,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>7059.14699999998</v>
+        <v>17.584</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1894,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>17.584</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1902,7 +1656,7 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>210.195</v>
+        <v>65.72799999999999</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1911,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>65.72799999999999</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1919,13 +1673,13 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>5169.248</v>
+        <v>133.904</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2543.4</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2543.4</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1936,7 +1690,7 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>1130.657</v>
+        <v>509.869999999996</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1945,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>509.869999999996</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1953,7 +1707,7 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>9.313000000000001</v>
+        <v>130.413</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1962,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>130.413</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1970,7 +1724,7 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>1965.978</v>
+        <v>3589.577999999998</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1979,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3589.577999999998</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1987,7 +1741,7 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>14.653</v>
+        <v>4.593</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1996,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>4.593</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2004,7 +1758,7 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>848.063</v>
+        <v>9575.013999999999</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2013,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>9575.013999999999</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2021,7 +1775,7 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>5799.473999999998</v>
+        <v>4750</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2030,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2038,7 +1792,7 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>880.28</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2047,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2055,7 +1809,7 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>117.647</v>
+        <v>21.12</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2064,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>21.12</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2072,7 +1826,7 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.296</v>
+        <v>321.328</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2081,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>321.328</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2089,7 +1843,7 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.104</v>
+        <v>55.9</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2098,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2106,7 +1860,7 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>6.927</v>
+        <v>22.32</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2115,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2123,10 +1877,10 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>381.506</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2140,7 +1894,7 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>9370.013999999999</v>
+        <v>1183.073</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2149,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1183.073</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2157,7 +1911,7 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.255</v>
+        <v>1772.541999999999</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2166,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1772.541999999999</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2174,10 +1928,10 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>10.197</v>
+        <v>1430.45</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2191,10 +1945,10 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>9530.308000000001</v>
+        <v>129.514</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2208,7 +1962,7 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>1601.998999999999</v>
+        <v>71.952</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2217,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>71.952</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2225,7 +1979,7 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>47666.7759999999</v>
+        <v>1698.3</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2234,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1698.3</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2242,7 +1996,7 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>107.527</v>
+        <v>16.94</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2251,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2259,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>7343.2</v>
+        <v>32.647</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2268,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>32.647</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2276,10 +2030,10 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>1066.666</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2293,7 +2047,7 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>17.584</v>
+        <v>20.3599999999999</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2302,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>20.3599999999999</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2310,7 +2064,7 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>2058.666</v>
+        <v>7.335</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2319,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>7.335</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2327,13 +2081,13 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>301.114</v>
+        <v>444.444</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>483.12</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>483.12</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2344,7 +2098,7 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>187.74</v>
+        <v>48.559</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2353,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>48.559</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2361,13 +2115,13 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>4352.673999999988</v>
+        <v>183.42</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2378,7 +2132,7 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>812.002999999999</v>
+        <v>250.791</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2387,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>250.791</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2395,16 +2149,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>1919.234999999999</v>
+        <v>33587.955</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>29909.88</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>29909.88</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3678.075000000001</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2412,7 +2166,7 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>2633.494999999995</v>
+        <v>869.5650000000001</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2421,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>869.5650000000001</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2429,13 +2183,13 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>117.647</v>
+        <v>527.6569999999999</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2446,7 +2200,7 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>4.593</v>
+        <v>10488.429</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2455,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10488.429</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2463,7 +2217,7 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>1210.086</v>
+        <v>516.311</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2472,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>516.311</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2480,7 +2234,7 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>4750</v>
+        <v>1965.954</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2489,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1965.954</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2497,7 +2251,7 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>633.516</v>
+        <v>12419.539</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2506,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>12419.539</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2514,7 +2268,7 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>2130.33999999999</v>
+        <v>1301.97699999999</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2523,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1301.97699999999</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2531,7 +2285,7 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2540,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2548,13 +2302,13 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>321.328</v>
+        <v>12768.048</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>13075.8</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>4375.8</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2565,16 +2319,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>29.403</v>
+        <v>9258.256999999991</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>4440.6</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>4440.6</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>4817.65699999999</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2582,16 +2336,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>27.15999999999999</v>
+        <v>359.611999999999</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>352.2</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>352.2</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>7.411999999999011</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2599,7 +2353,7 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>114.334</v>
+        <v>72.8480000000001</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2608,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>72.8480000000001</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2616,16 +2370,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>1183.073</v>
+        <v>19751.226</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>10603.56</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>10603.56</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>9147.665999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2633,7 +2387,7 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>735.8049999999999</v>
+        <v>24.989</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2642,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>24.989</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2650,7 +2404,7 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>1.61899999999999</v>
+        <v>3.802</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2659,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>3.802</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2667,13 +2421,13 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>19493.672</v>
+        <v>1286.104000000001</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>2178</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2178</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2684,7 +2438,7 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>16998.044</v>
+        <v>8455.473</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2693,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>8455.473</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2701,13 +2455,13 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>3588.97</v>
+        <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>9228.959999999999</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>9228.959999999999</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2718,7 +2472,7 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>26459.678</v>
+        <v>55.983</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2727,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>55.983</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2735,7 +2489,7 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>6525.86099999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2744,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2752,16 +2506,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>305.667</v>
+        <v>7782.139</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>7676.76</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>7676.76</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>105.3789999999999</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2769,7 +2523,7 @@
         <v>107</v>
       </c>
       <c r="B104">
-        <v>10.936</v>
+        <v>116.187</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2778,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>116.187</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2786,7 +2540,7 @@
         <v>108</v>
       </c>
       <c r="B105">
-        <v>129.514</v>
+        <v>1557.384</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2795,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1557.384</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2803,10 +2557,10 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>85.384</v>
+        <v>47641.273</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>48000</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2820,7 +2574,7 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>1393.798</v>
+        <v>43.998</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2829,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>43.998</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2837,10 +2591,10 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>54.928</v>
+        <v>54729.537</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2854,13 +2608,13 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>71.952</v>
+        <v>134.067</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>249.6</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>249.6</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2871,16 +2625,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>5654.531999999999</v>
+        <v>6089.302</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>4492.8</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>4492.8</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1596.501999999999</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2888,7 +2642,7 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>22.592</v>
+        <v>4731.28599999999</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2897,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>4731.28599999999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2905,7 +2659,7 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>1046.682</v>
+        <v>106.027</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2914,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>106.027</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2922,16 +2676,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>539.928</v>
+        <v>6503.31299999999</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6475.2</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>6475.2</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>28.11299999999028</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2939,7 +2693,7 @@
         <v>117</v>
       </c>
       <c r="B114">
-        <v>1084.24</v>
+        <v>38.737</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2948,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>38.737</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2956,13 +2710,13 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>174.494</v>
+        <v>3759.47</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>3816</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2973,7 +2727,7 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>3550.56</v>
+        <v>661.624</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2982,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>661.624</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2990,7 +2744,7 @@
         <v>120</v>
       </c>
       <c r="B117">
-        <v>531.804</v>
+        <v>10.31</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2999,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3007,7 +2761,7 @@
         <v>121</v>
       </c>
       <c r="B118">
-        <v>11.241</v>
+        <v>219.192</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3016,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>219.192</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3024,7 +2778,7 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>0.86</v>
+        <v>750.5</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3033,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>750.5</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3041,7 +2795,7 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>7.335</v>
+        <v>768</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3050,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>768</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3058,7 +2812,7 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>444.444</v>
+        <v>87.008</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3067,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>87.008</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3075,7 +2829,7 @@
         <v>125</v>
       </c>
       <c r="B122">
-        <v>48.559</v>
+        <v>719.67</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3084,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>719.67</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3092,7 +2846,7 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>163.42</v>
+        <v>183.2</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3101,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3109,7 +2863,7 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>250.791</v>
+        <v>38.4</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3118,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3126,7 +2880,7 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>3328.891</v>
+        <v>0.483</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3135,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3143,7 +2897,7 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>21347.34</v>
+        <v>0.288</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3152,1401 +2906,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>130</v>
-      </c>
-      <c r="B127">
-        <v>458.291000000004</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>131</v>
-      </c>
-      <c r="B128">
-        <v>869.5650000000001</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
-      <c r="B129">
-        <v>127.695</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>133</v>
-      </c>
-      <c r="B130">
-        <v>20446.283</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>134</v>
-      </c>
-      <c r="B131">
-        <v>894.024000000001</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132">
-        <v>513.248</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>136</v>
-      </c>
-      <c r="B133">
-        <v>3004.622</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>137</v>
-      </c>
-      <c r="B134">
-        <v>43506.131</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>138</v>
-      </c>
-      <c r="B135">
-        <v>1000</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136">
-        <v>165.249</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137">
-        <v>4958.924</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" t="s">
-        <v>141</v>
-      </c>
-      <c r="B138">
-        <v>28667.154</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139">
-        <v>58574.893</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140">
-        <v>6809.118</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" t="s">
-        <v>144</v>
-      </c>
-      <c r="B141">
-        <v>29287.31599999999</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142">
-        <v>1250</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143">
-        <v>363.755999999999</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>147</v>
-      </c>
-      <c r="B144">
-        <v>1296.848</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
-        <v>148</v>
-      </c>
-      <c r="B145">
-        <v>2040.37399999999</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>149</v>
-      </c>
-      <c r="B146">
-        <v>2300.81799999999</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147">
-        <v>786.306</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>151</v>
-      </c>
-      <c r="B148">
-        <v>6343.432</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>152</v>
-      </c>
-      <c r="B149">
-        <v>2813.306</v>
-      </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150">
-        <v>0.189</v>
-      </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>154</v>
-      </c>
-      <c r="B151">
-        <v>71.161</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152">
-        <v>5192.692999999997</v>
-      </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153">
-        <v>3.802</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154">
-        <v>30.392</v>
-      </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>158</v>
-      </c>
-      <c r="B155">
-        <v>1693.722999999997</v>
-      </c>
-      <c r="C155">
-        <v>0</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>159</v>
-      </c>
-      <c r="B156">
-        <v>3671.257</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157">
-        <v>4347.525</v>
-      </c>
-      <c r="C157">
-        <v>0</v>
-      </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>161</v>
-      </c>
-      <c r="B158">
-        <v>645.1609999999999</v>
-      </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>162</v>
-      </c>
-      <c r="B159">
-        <v>381.59</v>
-      </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>163</v>
-      </c>
-      <c r="B160">
-        <v>129.84</v>
-      </c>
-      <c r="C160">
-        <v>0</v>
-      </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>164</v>
-      </c>
-      <c r="B161">
-        <v>6308.478999999999</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>165</v>
-      </c>
-      <c r="B162">
-        <v>9134.603000000001</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163">
-        <v>597.698000000005</v>
-      </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>167</v>
-      </c>
-      <c r="B164">
-        <v>1505.376</v>
-      </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>168</v>
-      </c>
-      <c r="B165">
-        <v>46.052</v>
-      </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>169</v>
-      </c>
-      <c r="B166">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167">
-        <v>94.277</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168">
-        <v>14093.592</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169">
-        <v>45789.89400000001</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" t="s">
-        <v>173</v>
-      </c>
-      <c r="B170">
-        <v>2795.698</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" t="s">
-        <v>174</v>
-      </c>
-      <c r="B171">
-        <v>899.073</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" t="s">
-        <v>175</v>
-      </c>
-      <c r="B172">
-        <v>116.187</v>
-      </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" t="s">
-        <v>176</v>
-      </c>
-      <c r="B173">
-        <v>43482.176</v>
-      </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" t="s">
-        <v>177</v>
-      </c>
-      <c r="B174">
-        <v>48164.75600000001</v>
-      </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
-        <v>0</v>
-      </c>
-      <c r="E174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" t="s">
-        <v>178</v>
-      </c>
-      <c r="B175">
-        <v>2484.56999999999</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
-        <v>0</v>
-      </c>
-      <c r="E175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" t="s">
-        <v>179</v>
-      </c>
-      <c r="B176">
-        <v>374.326</v>
-      </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
-        <v>0</v>
-      </c>
-      <c r="E176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" t="s">
-        <v>180</v>
-      </c>
-      <c r="B177">
-        <v>1304.348</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
-        <v>0</v>
-      </c>
-      <c r="E177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" t="s">
-        <v>181</v>
-      </c>
-      <c r="B178">
-        <v>827.913</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" t="s">
-        <v>182</v>
-      </c>
-      <c r="B179">
-        <v>4291.522</v>
-      </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" t="s">
-        <v>183</v>
-      </c>
-      <c r="B180">
-        <v>51.90499999999999</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" t="s">
-        <v>184</v>
-      </c>
-      <c r="B181">
-        <v>1036.176</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" t="s">
-        <v>185</v>
-      </c>
-      <c r="B182">
-        <v>1829.446</v>
-      </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" t="s">
-        <v>186</v>
-      </c>
-      <c r="B183">
-        <v>9997.565999999999</v>
-      </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" t="s">
-        <v>187</v>
-      </c>
-      <c r="B184">
-        <v>34213.039</v>
-      </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
-        <v>0</v>
-      </c>
-      <c r="E184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185">
-        <v>3478.26</v>
-      </c>
-      <c r="C185">
-        <v>0</v>
-      </c>
-      <c r="D185">
-        <v>0</v>
-      </c>
-      <c r="E185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186">
-        <v>395.499000000004</v>
-      </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-      <c r="D186">
-        <v>0</v>
-      </c>
-      <c r="E186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" t="s">
-        <v>190</v>
-      </c>
-      <c r="B187">
-        <v>3974.88</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
-        <v>0</v>
-      </c>
-      <c r="E187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" t="s">
-        <v>191</v>
-      </c>
-      <c r="B188">
-        <v>3050.77099999999</v>
-      </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
-      </c>
-      <c r="E188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" t="s">
-        <v>192</v>
-      </c>
-      <c r="B189">
-        <v>18598.55</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" t="s">
-        <v>193</v>
-      </c>
-      <c r="B190">
-        <v>31574.476</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
-      </c>
-      <c r="E190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" t="s">
-        <v>194</v>
-      </c>
-      <c r="B191">
-        <v>106.027</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
-        <v>0</v>
-      </c>
-      <c r="E191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" t="s">
-        <v>195</v>
-      </c>
-      <c r="B192">
-        <v>1273.964999999999</v>
-      </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" t="s">
-        <v>196</v>
-      </c>
-      <c r="B193">
-        <v>3256.688999999999</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" t="s">
-        <v>197</v>
-      </c>
-      <c r="B194">
-        <v>38.737</v>
-      </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" t="s">
-        <v>198</v>
-      </c>
-      <c r="B195">
-        <v>22.614</v>
-      </c>
-      <c r="C195">
-        <v>0</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" t="s">
-        <v>199</v>
-      </c>
-      <c r="B196">
-        <v>12750.79999999999</v>
-      </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197">
-        <v>990.1079999999999</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" t="s">
-        <v>201</v>
-      </c>
-      <c r="B198">
-        <v>46.395</v>
-      </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
-        <v>0</v>
-      </c>
-      <c r="E198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" t="s">
-        <v>202</v>
-      </c>
-      <c r="B199">
-        <v>220.644</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
-        <v>0</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" t="s">
-        <v>203</v>
-      </c>
-      <c r="B200">
-        <v>10.31</v>
-      </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
-        <v>0</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" t="s">
-        <v>204</v>
-      </c>
-      <c r="B201">
-        <v>1501</v>
-      </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" t="s">
-        <v>205</v>
-      </c>
-      <c r="B202">
-        <v>16</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-      <c r="D202">
-        <v>0</v>
-      </c>
-      <c r="E202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" t="s">
-        <v>206</v>
-      </c>
-      <c r="B203">
-        <v>100.464</v>
-      </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
-        <v>0</v>
-      </c>
-      <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" t="s">
-        <v>207</v>
-      </c>
-      <c r="B204">
-        <v>87.008</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
-        <v>0</v>
-      </c>
-      <c r="E204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" t="s">
-        <v>208</v>
-      </c>
-      <c r="B205">
-        <v>55.68</v>
-      </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
-        <v>0</v>
-      </c>
-      <c r="E205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206">
-        <v>146.56</v>
-      </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
-        <v>0</v>
-      </c>
-      <c r="E206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>210</v>
-      </c>
-      <c r="B207">
-        <v>38.4</v>
-      </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
-        <v>0</v>
-      </c>
-      <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>211</v>
-      </c>
-      <c r="B208">
-        <v>0.399</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
-        <v>0</v>
+        <v>0.288</v>
       </c>
     </row>
   </sheetData>
